--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail5 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>7.494496838081306e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.474987073621079</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.135951968655912</v>
+        <v>6.775362874136483e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.0541574851094094</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.775362874136483e-06</v>
+        <v>0.1549668198612271</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0541574851094094</v>
+        <v>0.02691059613357426</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1549668198612271</v>
+        <v>1.921090176873874</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02691059613357426</v>
+        <v>2.864830566581357</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.949605113840744</v>
+        <v>4.83510515813729</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.864830566581357</v>
+        <v>6.261257169809485e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.83510515813729</v>
+        <v>827353257.6399671</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.261257169809485e-16</v>
+        <v>1.448284423078334e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>827353257.6399671</v>
+        <v>428.5914514522856</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.448284423078334e-07</v>
+        <v>0.0001288059994793751</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>428.5914514522856</v>
+        <v>9.160460774223539</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001288059994793751</v>
+        <v>1.173919424482011</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.160460774223539</v>
+        <v>0.01080863199813799</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.173919424482011</v>
+        <v>3.292453876170903</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01080863199813799</v>
+        <v>0.9609607134156924</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.292453876170903</v>
+        <v>1.133366629288241</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9609607134156924</v>
+        <v>61</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.133366629288241</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.354137709375363</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>7.444980977823805e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5225861596371686</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.051327265895908</v>
+        <v>6.77174277716447e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.04334952970142704</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.77174277716447e-06</v>
+        <v>0.1366093193877732</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04334952970142704</v>
+        <v>0.02052485293209987</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1366093193877732</v>
+        <v>1.919064623724266</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02052485293209987</v>
+        <v>2.403545253804907</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951923643107752</v>
+        <v>4.870052982968822</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.403545253804907</v>
+        <v>8.099829081196365e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.870052982968822</v>
+        <v>651515410.2770456</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.099829081196365e-16</v>
+        <v>1.836636478254442e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>651515410.2770456</v>
+        <v>343.8153321307792</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.836636478254442e-07</v>
+        <v>0.0001179921646512632</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>343.8153321307792</v>
+        <v>8.452037507624695</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001179921646512632</v>
+        <v>1.171484266034052</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.452037507624695</v>
+        <v>0.008428998954252611</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.171484266034052</v>
+        <v>3.495189058770866</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008428998954252611</v>
+        <v>0.9608051731173384</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.495189058770866</v>
+        <v>1.107966805097542</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9608051731173384</v>
+        <v>61</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.107966805097542</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.545251832143069</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>7.456221298441156e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5827753817080219</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9698022317648292</v>
+        <v>6.768839975402453e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.03507505181861372</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.768839975402453e-06</v>
+        <v>0.1300169509087815</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03507505181861372</v>
+        <v>0.01812879910913773</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1300169509087815</v>
+        <v>1.915644432306642</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01812879910913773</v>
+        <v>2.419314761150963</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.943638763072526</v>
+        <v>4.795481655411692</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.419314761150963</v>
+        <v>8.353697771764395e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.795481655411692</v>
+        <v>624917481.0895925</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.353697771764395e-16</v>
+        <v>1.912734038379859e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>624917481.0895925</v>
+        <v>326.2301576431391</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.912734038379859e-07</v>
+        <v>0.0001271039618176629</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>326.2301576431391</v>
+        <v>8.671512908996004</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001271039618176629</v>
+        <v>1.232637114686111</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.671512908996004</v>
+        <v>0.009557599711653889</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.232637114686111</v>
+        <v>3.581490033039173</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009557599711653889</v>
+        <v>0.9614670074700843</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.581490033039173</v>
+        <v>1.146715655106283</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614670074700843</v>
+        <v>61</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.146715655106283</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.585408806244505</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>7.476353104240529e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6434406843408177</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9033667501379616</v>
+        <v>6.766446360901608e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.02943699543067589</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.766446360901608e-06</v>
+        <v>0.1295966865131884</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02943699543067589</v>
+        <v>0.01765965954121636</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1295966865131884</v>
+        <v>1.913031838857417</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01765965954121636</v>
+        <v>2.581152438234932</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.940343887008918</v>
+        <v>4.919604463236046</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.581152438234932</v>
+        <v>7.937483822578879e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.919604463236046</v>
+        <v>665619494.1407577</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.937483822578879e-16</v>
+        <v>1.798864186046117e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>665619494.1407577</v>
+        <v>351.6696738510041</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.798864186046117e-07</v>
+        <v>0.0001577887692333527</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>351.6696738510041</v>
+        <v>9.955880952775045</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001577887692333527</v>
+        <v>1.22191699518914</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.955880952775045</v>
+        <v>0.01563995425442098</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.22191699518914</v>
+        <v>3.338154769585508</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01563995425442098</v>
+        <v>0.9597768332897574</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.338154769585508</v>
+        <v>1.179508586079856</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9597768332897574</v>
+        <v>75</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.179508586079856</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.529517226992596</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>7.488969332848626e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7034636706195704</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8388988549821863</v>
+        <v>6.764386876505665e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.02593675858848868</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.764386876505665e-06</v>
+        <v>0.1303441151411674</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02593675858848868</v>
+        <v>0.0176616917705699</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1303441151411674</v>
+        <v>1.909159016283163</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0176616917705699</v>
+        <v>2.581491716457051</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.93789140156417</v>
+        <v>4.632140866287939</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.581491716457051</v>
+        <v>8.953229369804215e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.632140866287939</v>
+        <v>585912744.1150776</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.953229369804215e-16</v>
+        <v>2.041967282694792e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>585912744.1150776</v>
+        <v>307.3587628712255</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.041967282694792e-07</v>
+        <v>0.0001654979023026969</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>307.3587628712255</v>
+        <v>10.08073107452381</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001654979023026969</v>
+        <v>1.219242264463564</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.08073107452381</v>
+        <v>0.01681808533359278</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.219242264463564</v>
+        <v>3.240830389351078</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01681808533359278</v>
+        <v>0.9595151972439095</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.240830389351078</v>
+        <v>1.184806989283226</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9595151972439095</v>
+        <v>57</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.184806989283226</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.386849734489497</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>7.492874612859715e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7634281809035398</v>
+        <v>2.543062569472192e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.768445100689664</v>
+        <v>6.762502143091296e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.543062569472192e-07</v>
+        <v>-0.0247857128070235</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.762502143091296e-06</v>
+        <v>0.130636802631568</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0247857128070235</v>
+        <v>0.01768036408048028</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.130636802631568</v>
+        <v>1.913885536294595</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01768036408048028</v>
+        <v>2.535151763659131</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.937657314136172</v>
+        <v>4.151066084819904</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.535151763659131</v>
+        <v>1.114869237269215e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.151066084819904</v>
+        <v>468473363.5091752</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.114869237269215e-15</v>
+        <v>2.558927176399649e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>468473363.5091752</v>
+        <v>244.6773327916624</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.558927176399649e-07</v>
+        <v>0.0001669540227819783</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>244.6773327916624</v>
+        <v>9.561321429775077</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001669540227819783</v>
+        <v>1.31462012883666</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.561321429775077</v>
+        <v>0.01526274768453892</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.31462012883666</v>
+        <v>3.190821516117265</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01526274768453892</v>
+        <v>0.960154013211639</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.190821516117265</v>
+        <v>1.201940633931289</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.960154013211639</v>
+        <v>57</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.201940633931289</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.029076813067571</v>
       </c>
     </row>
@@ -1513,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.531887716317284</v>
+        <v>1.452691662114814</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.722624550097429</v>
@@ -1602,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.533415085008133</v>
+        <v>1.455684991809182</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.792167736627926</v>
@@ -1691,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.539333403195263</v>
+        <v>1.465206352540626</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.756266880093816</v>
@@ -1780,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537425425596211</v>
+        <v>1.465441896571647</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.739602619678474</v>
@@ -1869,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541238474986416</v>
+        <v>1.468803061766785</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.613815179239433</v>
@@ -1958,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542829136297304</v>
+        <v>1.475544091961894</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.685739797011926</v>
@@ -2047,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.543494426433988</v>
+        <v>1.47478665777093</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.619173045070963</v>
@@ -2136,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543976958114645</v>
+        <v>1.472360105819938</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.614792831528756</v>
@@ -2225,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544823605486197</v>
+        <v>1.474147983617806</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.619299612809388</v>
@@ -2314,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.534803019723169</v>
+        <v>1.464518046754056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.727789397319606</v>
@@ -2403,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.527332416674734</v>
+        <v>1.456339194878127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.695728372636187</v>
@@ -2492,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515531709453047</v>
+        <v>1.442219317871638</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.593963688819545</v>
@@ -2581,7 +2533,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518057163490584</v>
+        <v>1.445115010509326</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.548144122137795</v>
@@ -2670,7 +2622,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523224008725113</v>
+        <v>1.449903617513074</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.611091362690978</v>
@@ -2759,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.549353245065615</v>
+        <v>1.467308200192824</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.749346943815208</v>
@@ -2848,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57075221443021</v>
+        <v>1.485562352782054</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.807886691368412</v>
@@ -2937,7 +2889,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569704381852365</v>
+        <v>1.481679934097047</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.124618502785882</v>
@@ -3026,7 +2978,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557175194708879</v>
+        <v>1.475085528274189</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.394847643937795</v>
@@ -3115,7 +3067,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.559733698375843</v>
+        <v>1.477457284554504</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.191915749264754</v>
@@ -3204,7 +3156,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561559855691246</v>
+        <v>1.476522917450649</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.309267669744493</v>
@@ -3293,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569215449077148</v>
+        <v>1.479257182636192</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.219134724658505</v>
@@ -3382,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.577262864166141</v>
+        <v>1.486228403947002</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.266083596515359</v>
@@ -3471,7 +3423,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576789952185211</v>
+        <v>1.496709213827076</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.255129326579411</v>
@@ -3560,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581546554511495</v>
+        <v>1.497695049591731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.0068798463827</v>
@@ -3649,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572213916824114</v>
+        <v>1.491744890525293</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.299164244689861</v>
@@ -3738,7 +3690,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570731823216311</v>
+        <v>1.498906203494083</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.280838056433694</v>
@@ -3827,7 +3779,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590040544505942</v>
+        <v>1.517648516641083</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.200223684479856</v>
@@ -3916,7 +3868,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.587383025802468</v>
+        <v>1.511973303939279</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.925911362363075</v>
@@ -4005,7 +3957,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574986029958197</v>
+        <v>1.505018786369697</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.897041522726536</v>
@@ -4094,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.575154648180291</v>
+        <v>1.508952478292577</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.005376279900307</v>
@@ -4183,7 +4135,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.569262004661735</v>
+        <v>1.508062582266236</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.969904348454619</v>
@@ -4272,7 +4224,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572032014281483</v>
+        <v>1.507499007871413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.144632364993261</v>
@@ -4361,7 +4313,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.577106893868572</v>
+        <v>1.508852575301519</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.388847731956016</v>
@@ -4450,7 +4402,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584507695453692</v>
+        <v>1.514540941597241</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.163545227034413</v>
@@ -4539,7 +4491,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584176129813011</v>
+        <v>1.510467810805165</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.254456621284965</v>
@@ -4628,7 +4580,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.593491461375721</v>
+        <v>1.519175349650489</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.039780380279737</v>
@@ -4717,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.582153857962506</v>
+        <v>1.515446457423105</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.366369611234206</v>
@@ -4806,7 +4758,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567817830218025</v>
+        <v>1.498206204799859</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.145384419044345</v>
@@ -4895,7 +4847,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560006690753495</v>
+        <v>1.493610865372363</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.148904617336366</v>
@@ -4984,7 +4936,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.57535338763354</v>
+        <v>1.503169885457521</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.493537999251865</v>
@@ -5073,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583463396031847</v>
+        <v>1.505780695935936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.420080761960034</v>
@@ -5162,7 +5114,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581654606356714</v>
+        <v>1.506494738332425</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.999959219862641</v>
@@ -5251,7 +5203,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598949535056283</v>
+        <v>1.518178074525229</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.538792590767533</v>
@@ -5340,7 +5292,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.61279307138077</v>
+        <v>1.529245655585076</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.221544966645448</v>
@@ -5429,7 +5381,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615933401896584</v>
+        <v>1.531262766666285</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.345929033269737</v>
@@ -5518,7 +5470,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62626004120301</v>
+        <v>1.537199197389332</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.309638943338942</v>
@@ -5607,7 +5559,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621000315354111</v>
+        <v>1.537669145466636</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.332406371149284</v>
@@ -5696,7 +5648,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629167964136161</v>
+        <v>1.543310668957784</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.601187783843153</v>
@@ -5785,7 +5737,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620492125577603</v>
+        <v>1.537623658937678</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.564416038530172</v>
@@ -5874,7 +5826,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.625445579996016</v>
+        <v>1.545868786225938</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.50058144652444</v>
@@ -5963,7 +5915,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603004677311623</v>
+        <v>1.527546313454318</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.157392868372121</v>
@@ -6249,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533268992137687</v>
+        <v>1.480929714633601</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.22375296341172</v>
@@ -6338,7 +6290,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.554383269356974</v>
+        <v>1.497192990765592</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.212566105747973</v>
@@ -6427,7 +6379,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.565074049649299</v>
+        <v>1.509531647742711</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.027577674650799</v>
@@ -6516,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.562214765163318</v>
+        <v>1.502096578778736</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.830228745969287</v>
@@ -6605,7 +6557,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556648154494068</v>
+        <v>1.498878921624213</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.804326599966662</v>
@@ -6694,7 +6646,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.565752962639212</v>
+        <v>1.511738026563192</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.993759649221196</v>
@@ -6783,7 +6735,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56802401432385</v>
+        <v>1.50959342244712</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.931258022266073</v>
@@ -6872,7 +6824,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.572723973613819</v>
+        <v>1.510814890089582</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.01664531906124</v>
@@ -6961,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.577349036828758</v>
+        <v>1.515659452128328</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.959066980628019</v>
@@ -7050,7 +7002,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.566702464659972</v>
+        <v>1.501855231809892</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.260132955184974</v>
@@ -7139,7 +7091,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.570090420691216</v>
+        <v>1.505329924869293</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.944239404676809</v>
@@ -7228,7 +7180,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.56275083073578</v>
+        <v>1.497265814015671</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.018518020375282</v>
@@ -7317,7 +7269,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.572359459882757</v>
+        <v>1.505718276491388</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.793836913658541</v>
@@ -7406,7 +7358,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571489353372917</v>
+        <v>1.50227332235641</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.743779456518962</v>
@@ -7495,7 +7447,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.562821110519935</v>
+        <v>1.489760592442155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.020756298942719</v>
@@ -7584,7 +7536,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556565169845377</v>
+        <v>1.489065311316923</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.188511885379962</v>
@@ -7673,7 +7625,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.546762029606409</v>
+        <v>1.484250290013635</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.203063858778246</v>
@@ -7762,7 +7714,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538059077315934</v>
+        <v>1.478378977800336</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.224850842150877</v>
@@ -7851,7 +7803,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557285034350508</v>
+        <v>1.49650381496143</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.28818696750327</v>
@@ -7940,7 +7892,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560059479698053</v>
+        <v>1.495366637152212</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.169464186084499</v>
@@ -8029,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566769690468617</v>
+        <v>1.500418328474329</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.014749530697558</v>
@@ -8118,7 +8070,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575713319883134</v>
+        <v>1.509170220466952</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.073843622701628</v>
@@ -8207,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581599557705755</v>
+        <v>1.51796752790826</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.067915510575263</v>
@@ -8296,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592926241611149</v>
+        <v>1.526414739317943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.015913851194137</v>
@@ -8385,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598250966483979</v>
+        <v>1.530155662785881</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.337678744321793</v>
@@ -8474,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595732697634908</v>
+        <v>1.533928050118546</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.219535321602242</v>
@@ -8563,7 +8515,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613425449759531</v>
+        <v>1.556321905432903</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.013668014037276</v>
@@ -8652,7 +8604,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.608702993419933</v>
+        <v>1.54857695463409</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.91711847046599</v>
@@ -8741,7 +8693,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613548159520188</v>
+        <v>1.55431172480605</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.612912128487597</v>
@@ -8830,7 +8782,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.624197941015857</v>
+        <v>1.569377878929499</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.385261981375724</v>
@@ -8919,7 +8871,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.616701314133968</v>
+        <v>1.562754572671357</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.424462965729116</v>
@@ -9008,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.612469391204477</v>
+        <v>1.55836640876386</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.234687100251416</v>
@@ -9097,7 +9049,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617424591460819</v>
+        <v>1.554334802095453</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.063832577172529</v>
@@ -9186,7 +9138,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.609958719446583</v>
+        <v>1.543738256136436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.139766873783014</v>
@@ -9275,7 +9227,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609661733582668</v>
+        <v>1.543817587479192</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.282497015918121</v>
@@ -9364,7 +9316,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613679623057948</v>
+        <v>1.54420638109117</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.971016226755335</v>
@@ -9453,7 +9405,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606139626771196</v>
+        <v>1.538127004454779</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.387416991698023</v>
@@ -9542,7 +9494,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585325393139587</v>
+        <v>1.520306856372306</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.181843637148279</v>
@@ -9631,7 +9583,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574932049345266</v>
+        <v>1.507429750458801</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.179761164479998</v>
@@ -9720,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.574130434137502</v>
+        <v>1.513472353761719</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.399584178434294</v>
@@ -9809,7 +9761,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.579765341615397</v>
+        <v>1.514454774873292</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.914300534969366</v>
@@ -9898,7 +9850,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573943958170583</v>
+        <v>1.505135902102116</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.415229369536239</v>
@@ -9987,7 +9939,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589050450978698</v>
+        <v>1.519252542651106</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.904100521138778</v>
@@ -10076,7 +10028,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.598479615128877</v>
+        <v>1.529423661135181</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.29077361302622</v>
@@ -10165,7 +10117,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59942026637179</v>
+        <v>1.525079520737624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.184857091974857</v>
@@ -10254,7 +10206,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618796991202306</v>
+        <v>1.539702882759913</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.365839646307728</v>
@@ -10343,7 +10295,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.620682434738841</v>
+        <v>1.542726444644435</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.110072226694315</v>
@@ -10432,7 +10384,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610247582305356</v>
+        <v>1.542619085968807</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.17915095357723</v>
@@ -10521,7 +10473,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.59970239744936</v>
+        <v>1.534855817009958</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.148410495110293</v>
@@ -10610,7 +10562,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601015315499954</v>
+        <v>1.533040546524907</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.176081368974119</v>
@@ -10699,7 +10651,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589536770184162</v>
+        <v>1.528220961084781</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.537849560153451</v>
@@ -10985,7 +10937,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422532124989621</v>
+        <v>1.395167297413054</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.693476238674642</v>
@@ -11074,7 +11026,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.424243646671811</v>
+        <v>1.394127343468811</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.757906302866507</v>
@@ -11163,7 +11115,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.43303844297699</v>
+        <v>1.401720755244301</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.559722456018346</v>
@@ -11252,7 +11204,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.434267638462951</v>
+        <v>1.402951166049137</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.412727013248948</v>
@@ -11341,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.44142895413874</v>
+        <v>1.412703096781228</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.479309103212922</v>
@@ -11430,7 +11382,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.465442407119812</v>
+        <v>1.434000853906131</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.745034614644762</v>
@@ -11519,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476771389391458</v>
+        <v>1.443613664951869</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.656664627267046</v>
@@ -11608,7 +11560,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.49506820945078</v>
+        <v>1.460461836195272</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.860508263281088</v>
@@ -11697,7 +11649,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.498589774148353</v>
+        <v>1.466300290418389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.748192724840513</v>
@@ -11786,7 +11738,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.502958045427964</v>
+        <v>1.470395688057598</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.865480944970863</v>
@@ -11875,7 +11827,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.511361098030777</v>
+        <v>1.475794250803796</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.558578345602059</v>
@@ -11964,7 +11916,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.518416393147523</v>
+        <v>1.478011890363607</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.757608760196258</v>
@@ -12053,7 +12005,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530404269996275</v>
+        <v>1.487486237807979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.370792637475919</v>
@@ -12142,7 +12094,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544166565134967</v>
+        <v>1.497781665137101</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.354645948287698</v>
@@ -12231,7 +12183,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.542598220747202</v>
+        <v>1.487814371147488</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.617567635616588</v>
@@ -12320,7 +12272,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.538863636071417</v>
+        <v>1.488560930646932</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.666894905284322</v>
@@ -12409,7 +12361,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.543583895735036</v>
+        <v>1.496119993346931</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.578518445622156</v>
@@ -12498,7 +12450,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.545417722092129</v>
+        <v>1.492840140710721</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.563350683806699</v>
@@ -12587,7 +12539,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.571900443801188</v>
+        <v>1.51355278742323</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.842600847640373</v>
@@ -12676,7 +12628,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560471650635745</v>
+        <v>1.50210091460803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.742642148521501</v>
@@ -12765,7 +12717,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.542436315615393</v>
+        <v>1.486144553299015</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.962114838749213</v>
@@ -12854,7 +12806,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550714481324775</v>
+        <v>1.488299285031827</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.203931387789265</v>
@@ -12943,7 +12895,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555836087463057</v>
+        <v>1.490485643201506</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.777469783145119</v>
@@ -13032,7 +12984,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569014064903941</v>
+        <v>1.503081923043416</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.135152152702305</v>
@@ -13121,7 +13073,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559803809736972</v>
+        <v>1.495060680414996</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.164064599180761</v>
@@ -13210,7 +13162,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.556152768054328</v>
+        <v>1.493189235037602</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.137479013014361</v>
@@ -13299,7 +13251,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559934886862736</v>
+        <v>1.494523951807148</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.856571611449214</v>
@@ -13388,7 +13340,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541549697071038</v>
+        <v>1.480176963571766</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.111606778421661</v>
@@ -13477,7 +13429,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.555739758710307</v>
+        <v>1.495361857458896</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.675586433613131</v>
@@ -13566,7 +13518,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561498290702479</v>
+        <v>1.509078886224369</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.140472225437161</v>
@@ -13655,7 +13607,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572738078368982</v>
+        <v>1.516384024173986</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.107198468902478</v>
@@ -13744,7 +13696,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.575630524314331</v>
+        <v>1.51576038955453</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.791085266636812</v>
@@ -13833,7 +13785,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569939285653127</v>
+        <v>1.50895296194352</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.951161390095876</v>
@@ -13922,7 +13874,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.5650268329289</v>
+        <v>1.503612932725253</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.004665795231401</v>
@@ -14011,7 +13963,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.567150324551496</v>
+        <v>1.505145783168857</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.065517650181363</v>
@@ -14100,7 +14052,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575778672664039</v>
+        <v>1.513269852235907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.106875177796056</v>
@@ -14189,7 +14141,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57243975761954</v>
+        <v>1.519419300164523</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.964848567774011</v>
@@ -14278,7 +14230,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.562194643181805</v>
+        <v>1.510824391906407</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.834128535396477</v>
@@ -14367,7 +14319,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55790725564844</v>
+        <v>1.499554519212782</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.159632949609511</v>
@@ -14456,7 +14408,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552186625947203</v>
+        <v>1.499155000231742</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.770230283731736</v>
@@ -14545,7 +14497,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548155033288417</v>
+        <v>1.492542470110253</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.770212507840625</v>
@@ -14634,7 +14586,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553285988634832</v>
+        <v>1.499247105687046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.549736649913781</v>
@@ -14723,7 +14675,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576567726648849</v>
+        <v>1.514315169101563</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.525125448910845</v>
@@ -14812,7 +14764,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582730443304822</v>
+        <v>1.515496202132184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.426910860791184</v>
@@ -14901,7 +14853,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589142793092217</v>
+        <v>1.513694696077845</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.485388044728501</v>
@@ -14990,7 +14942,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.575519123125253</v>
+        <v>1.507244608108051</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.363511350732301</v>
@@ -15079,7 +15031,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575500216440527</v>
+        <v>1.512284670016728</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.035358786019338</v>
@@ -15168,7 +15120,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56172912646859</v>
+        <v>1.499810505321555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.084968431593651</v>
@@ -15257,7 +15209,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554920799041654</v>
+        <v>1.492161994651012</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.763782339404654</v>
@@ -15346,7 +15298,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556322891931516</v>
+        <v>1.49351823918159</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.897236695209199</v>
@@ -15435,7 +15387,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.55658628145714</v>
+        <v>1.490670724034408</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.067484283737946</v>
@@ -15721,7 +15673,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.577068680715021</v>
+        <v>1.496955529371795</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.773742061107308</v>
@@ -15810,7 +15762,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.595846771702647</v>
+        <v>1.513135681651138</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.820448310156159</v>
@@ -15899,7 +15851,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.604273350098138</v>
+        <v>1.523173727689606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.121553923016471</v>
@@ -15988,7 +15940,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615556124688042</v>
+        <v>1.534511550051887</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.484915304518793</v>
@@ -16077,7 +16029,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.62180475882471</v>
+        <v>1.541332704129417</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.457528249772223</v>
@@ -16166,7 +16118,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.620163168942832</v>
+        <v>1.542697264059808</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.761088448790751</v>
@@ -16255,7 +16207,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620236650320515</v>
+        <v>1.538455659127756</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.736707795533112</v>
@@ -16344,7 +16296,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622512715896285</v>
+        <v>1.538084366134411</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.971070195250419</v>
@@ -16433,7 +16385,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629854611176631</v>
+        <v>1.548044902033096</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.177095946245589</v>
@@ -16522,7 +16474,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.628550050558425</v>
+        <v>1.547980605564437</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.365812135647502</v>
@@ -16611,7 +16563,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634598299372067</v>
+        <v>1.555652784312844</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.370358282702019</v>
@@ -16700,7 +16652,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.623633927079008</v>
+        <v>1.542149895359382</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.292215789743552</v>
@@ -16789,7 +16741,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618839419946876</v>
+        <v>1.54446750621443</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.57218716303294</v>
@@ -16878,7 +16830,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627034385165092</v>
+        <v>1.548789009725042</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.068122833058642</v>
@@ -16967,7 +16919,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636456777720239</v>
+        <v>1.551982993605755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.641220969686739</v>
@@ -17056,7 +17008,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644972208055006</v>
+        <v>1.558966955689501</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.078759819556938</v>
@@ -17145,7 +17097,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638914799864549</v>
+        <v>1.552064005186534</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.740124900937186</v>
@@ -17234,7 +17186,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.635165058367917</v>
+        <v>1.54124515682796</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.83314302335472</v>
@@ -17323,7 +17275,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.63550918117513</v>
+        <v>1.538601440891994</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.386610983037512</v>
@@ -17412,7 +17364,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.63659624837639</v>
+        <v>1.540128337224526</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.302163633121853</v>
@@ -17501,7 +17453,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.631696215512408</v>
+        <v>1.529148544612482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.143778264687494</v>
@@ -17590,7 +17542,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.635035292849917</v>
+        <v>1.530967928553016</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.423258190464958</v>
@@ -17679,7 +17631,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635296809211434</v>
+        <v>1.538432281551221</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.723180430119464</v>
@@ -17768,7 +17720,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.634121963520281</v>
+        <v>1.539935968931347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.980661817550512</v>
@@ -17857,7 +17809,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626998750847922</v>
+        <v>1.529878239254816</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.494549659218938</v>
@@ -17946,7 +17898,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630745226691033</v>
+        <v>1.530757309923952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.184617318454951</v>
@@ -18035,7 +17987,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.647875017099748</v>
+        <v>1.546576710009673</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.910152356438081</v>
@@ -18124,7 +18076,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.649169202679093</v>
+        <v>1.549496385238262</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.277782407956141</v>
@@ -18213,7 +18165,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641251768111053</v>
+        <v>1.546309615177577</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.136283575316989</v>
@@ -18302,7 +18254,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.646114450500027</v>
+        <v>1.554007630688894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.485254806553745</v>
@@ -18391,7 +18343,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634677000327295</v>
+        <v>1.538914780009861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.034161927998146</v>
@@ -18480,7 +18432,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639863011716901</v>
+        <v>1.542111732657555</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.742893834837101</v>
@@ -18569,7 +18521,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63337208852488</v>
+        <v>1.543409681925517</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.650220835828592</v>
@@ -18658,7 +18610,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.64032643488187</v>
+        <v>1.5497634963747</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.675293798048426</v>
@@ -18747,7 +18699,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645222291453791</v>
+        <v>1.552597796594875</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.93836451622259</v>
@@ -18836,7 +18788,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648892919104175</v>
+        <v>1.561668894535232</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.478804267911495</v>
@@ -18925,7 +18877,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640647563382812</v>
+        <v>1.557641674868053</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.684178239905608</v>
@@ -19014,7 +18966,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638567478743044</v>
+        <v>1.551220769840097</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.05277299469354</v>
@@ -19103,7 +19055,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.618456325253257</v>
+        <v>1.531419480639997</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.179415625295515</v>
@@ -19192,7 +19144,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.630733288841603</v>
+        <v>1.547614944721137</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.225076472922173</v>
@@ -19281,7 +19233,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632234182720397</v>
+        <v>1.553126065600104</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.298280833263559</v>
@@ -19370,7 +19322,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621560271255424</v>
+        <v>1.54265655102434</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.030230035333038</v>
@@ -19459,7 +19411,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.631257010830691</v>
+        <v>1.547523836584744</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.200012183563989</v>
@@ -19548,7 +19500,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630672925866668</v>
+        <v>1.546090951987804</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.147896148109388</v>
@@ -19637,7 +19589,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.62329784518256</v>
+        <v>1.535036815044765</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.232884752938247</v>
@@ -19726,7 +19678,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628502249573929</v>
+        <v>1.544391942124753</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.156175685034376</v>
@@ -19815,7 +19767,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621129198156098</v>
+        <v>1.538083187990962</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.859502416133967</v>
@@ -19904,7 +19856,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623028710823046</v>
+        <v>1.542937524906235</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.213369971262091</v>
@@ -19993,7 +19945,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615513649964779</v>
+        <v>1.52938543092804</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.223884717305391</v>
@@ -20082,7 +20034,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616703427244427</v>
+        <v>1.521249467680178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.961276794163489</v>
@@ -20171,7 +20123,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615997364834155</v>
+        <v>1.521700943257916</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.935498019510069</v>
@@ -20457,7 +20409,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.491682066143009</v>
+        <v>1.437825422640225</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.378248594572229</v>
@@ -20546,7 +20498,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.493655604770596</v>
+        <v>1.440407928048278</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.306222430984714</v>
@@ -20635,7 +20587,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.506681376183856</v>
+        <v>1.449090298516325</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.508322988626477</v>
@@ -20724,7 +20676,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515082620467893</v>
+        <v>1.459325341252115</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.361920445463578</v>
@@ -20813,7 +20765,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514860558977457</v>
+        <v>1.459808200142694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.311763939261732</v>
@@ -20902,7 +20854,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.527954076976644</v>
+        <v>1.472580616528384</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.540805179450145</v>
@@ -20991,7 +20943,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526046199240503</v>
+        <v>1.476754603824621</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.419527044926857</v>
@@ -21080,7 +21032,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.524514901875906</v>
+        <v>1.479344542010934</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.244167751739271</v>
@@ -21169,7 +21121,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52040358915597</v>
+        <v>1.477731195000545</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.292862949174793</v>
@@ -21258,7 +21210,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.517297396053679</v>
+        <v>1.469819627082101</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.449123756617233</v>
@@ -21347,7 +21299,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.517671052426694</v>
+        <v>1.469737495534025</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.301743019600718</v>
@@ -21436,7 +21388,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510758043184307</v>
+        <v>1.460160436833331</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.308860508564032</v>
@@ -21525,7 +21477,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.519098033334804</v>
+        <v>1.467211026573964</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.239488092750823</v>
@@ -21614,7 +21566,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.543442694794538</v>
+        <v>1.490118721934885</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.228873004806448</v>
@@ -21703,7 +21655,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.548172287724455</v>
+        <v>1.498358202077575</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134083738839297</v>
@@ -21792,7 +21744,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.536835581250748</v>
+        <v>1.486582927165973</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.020897715622592</v>
@@ -21881,7 +21833,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545843557956877</v>
+        <v>1.49460797815215</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.046944334550965</v>
@@ -21970,7 +21922,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.535723475556647</v>
+        <v>1.488571414697043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.87845692526734</v>
@@ -22059,7 +22011,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537710436806972</v>
+        <v>1.490703453853124</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.295460910185368</v>
@@ -22148,7 +22100,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535683682076621</v>
+        <v>1.482576550301834</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.29641307031656</v>
@@ -22237,7 +22189,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532038379824416</v>
+        <v>1.474512697028806</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.80987173080341</v>
@@ -22326,7 +22278,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534968708152021</v>
+        <v>1.476610453773337</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.312188421108536</v>
@@ -22415,7 +22367,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542921077655525</v>
+        <v>1.479257849669147</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.814896650680416</v>
@@ -22504,7 +22456,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.547072029633694</v>
+        <v>1.48249998756567</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.806264674001502</v>
@@ -22593,7 +22545,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545414602961426</v>
+        <v>1.48013355457653</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.256420532830525</v>
@@ -22682,7 +22634,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.537651559199494</v>
+        <v>1.47929044703122</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.250140771200215</v>
@@ -22771,7 +22723,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550065509159998</v>
+        <v>1.490532570003415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.280913147755395</v>
@@ -22860,7 +22812,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.546016326111696</v>
+        <v>1.484708772733521</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.640166263643922</v>
@@ -22949,7 +22901,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543664902047361</v>
+        <v>1.487729655346212</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.888934036355062</v>
@@ -23038,7 +22990,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552527761117034</v>
+        <v>1.494786839655275</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.943829146317006</v>
@@ -23127,7 +23079,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550638940318918</v>
+        <v>1.497581548932581</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.882966588626288</v>
@@ -23216,7 +23168,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.544326800545631</v>
+        <v>1.493368905428374</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.070900869911613</v>
@@ -23305,7 +23257,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.549034124729463</v>
+        <v>1.495958355606814</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.034532457089896</v>
@@ -23394,7 +23346,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.556156023145094</v>
+        <v>1.503304500549931</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.146234854155815</v>
@@ -23483,7 +23435,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546840852323989</v>
+        <v>1.497731667899771</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.032159535546304</v>
@@ -23572,7 +23524,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551779470923744</v>
+        <v>1.5056881789282</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.121200837675056</v>
@@ -23661,7 +23613,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550825523455697</v>
+        <v>1.501997252307845</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.88041643979415</v>
@@ -23750,7 +23702,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543127562551102</v>
+        <v>1.49697062105332</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.697881469865782</v>
@@ -23839,7 +23791,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.54006407601559</v>
+        <v>1.497344661777976</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.094064169699539</v>
@@ -23928,7 +23880,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543015863511722</v>
+        <v>1.504898821458639</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.07163223759606</v>
@@ -24017,7 +23969,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556880085713099</v>
+        <v>1.512411641743025</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.080301550459779</v>
@@ -24106,7 +24058,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560560176775798</v>
+        <v>1.511681280302415</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.923584521425332</v>
@@ -24195,7 +24147,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.583880700338326</v>
+        <v>1.531642877245931</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.970663808644166</v>
@@ -24284,7 +24236,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596836703271541</v>
+        <v>1.54175364699746</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.548665361222358</v>
@@ -24373,7 +24325,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598945829018265</v>
+        <v>1.542293045247502</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.651343789130311</v>
@@ -24462,7 +24414,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604111012208802</v>
+        <v>1.549131486658617</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.5920421986637</v>
@@ -24551,7 +24503,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604134251803883</v>
+        <v>1.546707136984916</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.377656241660937</v>
@@ -24640,7 +24592,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.608940192016208</v>
+        <v>1.544174658829463</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.367190917501059</v>
@@ -24729,7 +24681,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600998050117667</v>
+        <v>1.536555542750506</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.186962425213884</v>
@@ -24818,7 +24770,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.615232108232668</v>
+        <v>1.54613476648816</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.479515408461247</v>
@@ -24907,7 +24859,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609844342049346</v>
+        <v>1.542719570692217</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.41663740097357</v>
@@ -25193,7 +25145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.335753722027256</v>
+        <v>1.312558928417867</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.673333721817599</v>
@@ -25282,7 +25234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.334352894394738</v>
+        <v>1.319993998365261</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.658159556352786</v>
@@ -25371,7 +25323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.346799264046747</v>
+        <v>1.330944375463127</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.630602716404245</v>
@@ -25460,7 +25412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.347219706920357</v>
+        <v>1.332118943212477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.344312227921812</v>
@@ -25549,7 +25501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.348171552619527</v>
+        <v>1.336665994647602</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.353362354217729</v>
@@ -25638,7 +25590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.366583986816046</v>
+        <v>1.352812929853094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.634099433158473</v>
@@ -25727,7 +25679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376267899082155</v>
+        <v>1.364798419200986</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.458712900743679</v>
@@ -25816,7 +25768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.394178311342287</v>
+        <v>1.386605538059722</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.5375505853657</v>
@@ -25905,7 +25857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4079010320762</v>
+        <v>1.395177390328505</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.488834855544284</v>
@@ -25994,7 +25946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.42391720055546</v>
+        <v>1.40994670841381</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.528819375487163</v>
@@ -26083,7 +26035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.434957088460362</v>
+        <v>1.421224226515066</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.345426868083686</v>
@@ -26172,7 +26124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455770793070871</v>
+        <v>1.435255809084223</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.359263700900594</v>
@@ -26261,7 +26213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466580625334238</v>
+        <v>1.442292258577388</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.427886606914193</v>
@@ -26350,7 +26302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470936008324425</v>
+        <v>1.448680027552425</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.319162742897337</v>
@@ -26439,7 +26391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.470477793630184</v>
+        <v>1.447997766380067</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.679409152562616</v>
@@ -26528,7 +26480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.474657208118194</v>
+        <v>1.454504773138562</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.530992644528101</v>
@@ -26617,7 +26569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.479853246525171</v>
+        <v>1.456194080341912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.758937927510683</v>
@@ -26706,7 +26658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.48431445566493</v>
+        <v>1.456208038591817</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.536443937050331</v>
@@ -26795,7 +26747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516399865328831</v>
+        <v>1.480610508437228</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.631707367216</v>
@@ -26884,7 +26836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.521428076629939</v>
+        <v>1.484476144575152</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.902801152778872</v>
@@ -26973,7 +26925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.512276149598326</v>
+        <v>1.472015758770942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.852245486654648</v>
@@ -27062,7 +27014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505723408556402</v>
+        <v>1.461070322445979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.958049661625282</v>
@@ -27151,7 +27103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.509239252422519</v>
+        <v>1.463240614776918</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.902893011720447</v>
@@ -27240,7 +27192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504695976675016</v>
+        <v>1.461109156349025</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.833906915513007</v>
@@ -27329,7 +27281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5043917722879</v>
+        <v>1.459962473055706</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.819761845283924</v>
@@ -27418,7 +27370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502838709380686</v>
+        <v>1.456231284060655</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.823519376471102</v>
@@ -27507,7 +27459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.509743194495769</v>
+        <v>1.459980315973338</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.900364435530915</v>
@@ -27596,7 +27548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.503588532944349</v>
+        <v>1.457681477838416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.575251579533394</v>
@@ -27685,7 +27637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.535651708678103</v>
+        <v>1.485186242133516</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.341105706493873</v>
@@ -27774,7 +27726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.538412050788934</v>
+        <v>1.489989867964581</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.708613923418175</v>
@@ -27863,7 +27815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.549810493545969</v>
+        <v>1.497949161801737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.869403843547214</v>
@@ -27952,7 +27904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547753323536818</v>
+        <v>1.489756834243643</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.682917137492563</v>
@@ -28041,7 +27993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.538374990659234</v>
+        <v>1.48766801379713</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.671590883098892</v>
@@ -28130,7 +28082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536756388880079</v>
+        <v>1.485441609233175</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.836607058939701</v>
@@ -28219,7 +28171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522344096783274</v>
+        <v>1.471657928466251</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830531032793491</v>
@@ -28308,7 +28260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53886852204642</v>
+        <v>1.477694643524993</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.392772663367662</v>
@@ -28397,7 +28349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.536969157295734</v>
+        <v>1.483342064791028</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.86825627588795</v>
@@ -28486,7 +28438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.522037660625541</v>
+        <v>1.465889618137331</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.017842458670751</v>
@@ -28575,7 +28527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51235836556624</v>
+        <v>1.452947006607035</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.052074040200736</v>
@@ -28664,7 +28616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.499553721155398</v>
+        <v>1.443981284882979</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.933880626182553</v>
@@ -28753,7 +28705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.510622915672475</v>
+        <v>1.456223017515363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.764280536282905</v>
@@ -28842,7 +28794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.513087749409718</v>
+        <v>1.456735032719272</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.627734574542949</v>
@@ -28931,7 +28883,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530625445753708</v>
+        <v>1.47670357029755</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.091467941709843</v>
@@ -29020,7 +28972,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.534867267264221</v>
+        <v>1.476622097761022</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.693203579334725</v>
@@ -29109,7 +29061,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.54982381846658</v>
+        <v>1.487257069980534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.084458966764009</v>
@@ -29198,7 +29150,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.544742372160518</v>
+        <v>1.479584628982717</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.131808904743352</v>
@@ -29287,7 +29239,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540327723302739</v>
+        <v>1.484807249505499</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.876602503200206</v>
@@ -29376,7 +29328,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542369809111081</v>
+        <v>1.488975352036278</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.812266674897739</v>
@@ -29465,7 +29417,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527530166754879</v>
+        <v>1.475129054566348</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.579927823909025</v>
@@ -29554,7 +29506,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53312235276846</v>
+        <v>1.483532987690917</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.590215027254707</v>
@@ -29643,7 +29595,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532264070997359</v>
+        <v>1.490924262961961</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.734516958358632</v>
